--- a/sheet/st_bitmap.xlsx
+++ b/sheet/st_bitmap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="30720" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="st_bitmap" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>split_pos_1</t>
   </si>
   <si>
-    <t>mine_bitmap</t>
+    <t>prushka_bitmap</t>
   </si>
   <si>
     <t>mine_ui/ui/pixel_split.png</t>
@@ -1088,7 +1088,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/sheet/st_bitmap.xlsx
+++ b/sheet/st_bitmap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="12780"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="st_bitmap" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>配置id</t>
   </si>
   <si>
-    <t>字体</t>
-  </si>
-  <si>
     <t>行数</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>config_id</t>
   </si>
   <si>
-    <t>font</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -92,10 +86,7 @@
     <t>split_pos_1</t>
   </si>
   <si>
-    <t>prushka_bitmap</t>
-  </si>
-  <si>
-    <t>mine_ui/ui/pixel_split.png</t>
+    <t>prushka:ui/pixel_split.png</t>
   </si>
   <si>
     <t>split_pos_2</t>
@@ -141,6 +132,18 @@
   </si>
   <si>
     <t>split_neg_128</t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>prushka:ui/emojis.png</t>
+  </si>
+  <si>
+    <t>system_prefix</t>
+  </si>
+  <si>
+    <t>prushka:ui/system_prefix.png</t>
   </si>
 </sst>
 </file>
@@ -1083,29 +1086,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="33.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3796296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="122.222222222222" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="9" width="122.222222222222" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,548 +1132,543 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>256</v>
+      </c>
+      <c r="G4" s="2">
+        <v>256</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>256</v>
+      </c>
+      <c r="G5" s="2">
+        <v>256</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>256</v>
+      </c>
+      <c r="G6" s="2">
+        <v>256</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>256</v>
+      </c>
+      <c r="G7" s="2">
+        <v>256</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>256</v>
+      </c>
+      <c r="G8" s="2">
+        <v>256</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E9" s="2">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>256</v>
+      </c>
+      <c r="G9" s="2">
+        <v>256</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>-32768</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>256</v>
-      </c>
-      <c r="H4" s="2">
-        <v>256</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E10" s="2">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2">
+        <v>256</v>
+      </c>
+      <c r="G10" s="2">
+        <v>256</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>-32768</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>256</v>
-      </c>
-      <c r="H5" s="2">
-        <v>256</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E11" s="2">
+        <v>127</v>
+      </c>
+      <c r="F11" s="2">
+        <v>256</v>
+      </c>
+      <c r="G11" s="2">
+        <v>256</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
         <v>-32768</v>
       </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>256</v>
-      </c>
-      <c r="H6" s="2">
-        <v>256</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="E12" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>256</v>
+      </c>
+      <c r="G12" s="2">
+        <v>256</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>-32768</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E13" s="2">
+        <v>-4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>256</v>
+      </c>
+      <c r="G13" s="2">
+        <v>256</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>256</v>
+      </c>
+      <c r="G14" s="2">
+        <v>256</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>256</v>
+      </c>
+      <c r="G15" s="2">
+        <v>256</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>256</v>
+      </c>
+      <c r="G16" s="2">
+        <v>256</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-34</v>
+      </c>
+      <c r="F17" s="2">
+        <v>256</v>
+      </c>
+      <c r="G17" s="2">
+        <v>256</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-66</v>
+      </c>
+      <c r="F18" s="2">
+        <v>256</v>
+      </c>
+      <c r="G18" s="2">
+        <v>256</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-32768</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-130</v>
+      </c>
+      <c r="F19" s="2">
+        <v>256</v>
+      </c>
+      <c r="G19" s="2">
+        <v>256</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>85</v>
+      </c>
+      <c r="G20" s="1">
+        <v>204</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
-        <v>256</v>
-      </c>
-      <c r="H7" s="2">
-        <v>256</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2">
-        <v>256</v>
-      </c>
-      <c r="H8" s="2">
-        <v>256</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F9" s="2">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2">
-        <v>256</v>
-      </c>
-      <c r="H9" s="2">
-        <v>256</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F10" s="2">
-        <v>63</v>
-      </c>
-      <c r="G10" s="2">
-        <v>256</v>
-      </c>
-      <c r="H10" s="2">
-        <v>256</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F11" s="2">
-        <v>127</v>
-      </c>
-      <c r="G11" s="2">
-        <v>256</v>
-      </c>
-      <c r="H11" s="2">
-        <v>256</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>256</v>
-      </c>
-      <c r="H12" s="2">
-        <v>256</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-4</v>
-      </c>
-      <c r="G13" s="2">
-        <v>256</v>
-      </c>
-      <c r="H13" s="2">
-        <v>256</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>256</v>
-      </c>
-      <c r="H14" s="2">
-        <v>256</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-10</v>
-      </c>
-      <c r="G15" s="2">
-        <v>256</v>
-      </c>
-      <c r="H15" s="2">
-        <v>256</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-18</v>
-      </c>
-      <c r="G16" s="2">
-        <v>256</v>
-      </c>
-      <c r="H16" s="2">
-        <v>256</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-34</v>
-      </c>
-      <c r="G17" s="2">
-        <v>256</v>
-      </c>
-      <c r="H17" s="2">
-        <v>256</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-66</v>
-      </c>
-      <c r="G18" s="2">
-        <v>256</v>
-      </c>
-      <c r="H18" s="2">
-        <v>256</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-32768</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-130</v>
-      </c>
-      <c r="G19" s="2">
-        <v>256</v>
-      </c>
-      <c r="H19" s="2">
-        <v>256</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="2"/>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheet/st_bitmap.xlsx
+++ b/sheet/st_bitmap.xlsx
@@ -1091,7 +1091,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1664,7 +1664,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>38</v>
